--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A7264-35EE-4C88-8420-F6188B766268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="使用案例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
   <si>
     <t>備註說明</t>
   </si>
@@ -407,13 +406,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>RvNo</t>
-  </si>
-  <si>
-    <t>銷帳編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
   </si>
   <si>
@@ -465,14 +457,37 @@
   </si>
   <si>
     <t>gGSeqCom.getSeqNo(0, 1, "L2", "0003", 999999, titaVo)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>gSeqCom.getSeqNo(this.getTxBuffer().getMgBizDate().getTbsDy(), 1, "L6", "RvNo", 999999, titaVo),</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:年度編號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,7 +823,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_CopyBook" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,23 +914,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -951,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1143,14 +1124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="3" bestFit="1" customWidth="1"/>
@@ -1161,7 +1142,7 @@
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1157,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="9" t="s">
@@ -1189,7 +1170,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="46" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1185,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
@@ -1215,7 +1196,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="46" t="s">
         <v>18</v>
       </c>
@@ -1226,7 +1207,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1218,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="43" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1229,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1282,17 +1263,17 @@
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="25">
         <v>8</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="21">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
@@ -1314,7 +1295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1336,7 +1317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="81">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1358,7 +1339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1380,7 +1361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1400,7 +1381,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1418,7 +1399,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1438,7 +1419,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1456,7 +1437,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1493,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1501,7 +1482,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="83" style="2" customWidth="1"/>
@@ -1509,7 +1490,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1528,14 +1509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="32" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="36" customWidth="1"/>
@@ -1543,12 +1524,12 @@
     <col min="4" max="4" width="17.6640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="70.33203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="94.6640625" style="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
@@ -1568,10 +1549,10 @@
         <v>55</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="32">
         <v>2</v>
       </c>
@@ -1591,10 +1572,10 @@
         <v>61</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="32">
         <v>3</v>
       </c>
@@ -1614,10 +1595,10 @@
         <v>63</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="32">
         <v>5</v>
       </c>
@@ -1640,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="32">
         <v>6</v>
       </c>
@@ -1663,10 +1644,10 @@
         <v>85</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="32">
         <v>7</v>
       </c>
@@ -1686,10 +1667,10 @@
         <v>86</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="32">
         <v>8</v>
       </c>
@@ -1709,10 +1690,10 @@
         <v>87</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="32">
         <v>9</v>
       </c>
@@ -1732,10 +1713,10 @@
         <v>88</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="32">
         <v>10</v>
       </c>
@@ -1755,10 +1736,10 @@
         <v>89</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="32">
         <v>11</v>
       </c>
@@ -1778,10 +1759,10 @@
         <v>90</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="32">
         <v>12</v>
       </c>
@@ -1801,10 +1782,10 @@
         <v>91</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="32">
         <v>13</v>
       </c>
@@ -1824,10 +1805,10 @@
         <v>92</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="32">
         <v>14</v>
       </c>
@@ -1847,10 +1828,10 @@
         <v>93</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="32">
         <v>15</v>
       </c>
@@ -1870,10 +1851,10 @@
         <v>94</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="32">
         <v>16</v>
       </c>
@@ -1893,10 +1874,10 @@
         <v>95</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="32">
         <v>17</v>
       </c>
@@ -1916,10 +1897,10 @@
         <v>96</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="32">
         <v>18</v>
       </c>
@@ -1939,10 +1920,10 @@
         <v>97</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="32">
         <v>19</v>
       </c>
@@ -1962,10 +1943,10 @@
         <v>98</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="32">
         <v>20</v>
       </c>
@@ -1985,10 +1966,10 @@
         <v>99</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="32">
         <v>21</v>
       </c>
@@ -2008,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="32">
         <v>22</v>
       </c>
@@ -2031,10 +2012,10 @@
         <v>101</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="32">
         <v>23</v>
       </c>
@@ -2054,10 +2035,10 @@
         <v>102</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="32">
         <v>24</v>
       </c>
@@ -2077,33 +2058,33 @@
         <v>103</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="32">
         <v>25</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E24" s="36">
         <v>999999</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="32">
         <v>26</v>
       </c>
@@ -2111,7 +2092,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>60</v>
@@ -2120,13 +2101,13 @@
         <v>999999</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="32">
         <v>27</v>
       </c>
@@ -2134,25 +2115,25 @@
         <v>106</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="36">
         <v>9999999</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="32">
         <v>28</v>
       </c>
@@ -2163,16 +2144,45 @@
         <v>59</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" s="36">
         <v>999999</v>
       </c>
       <c r="F27" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="32">
+        <v>29</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="36">
+        <v>999999</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="M29" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B1555-1D79-43E9-BAC5-0E29F680C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="使用案例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">例:有效值=999 , 流水號999時 , 下一個為001 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GseqDate   </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -235,259 +241,266 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件申請編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>擔保品-房地-住宅</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品-房地-辦公</t>
+  </si>
+  <si>
+    <t>擔保品-房地-商場</t>
+  </si>
+  <si>
+    <t>擔保品-房地-廠房</t>
+  </si>
+  <si>
+    <t>擔保品-房地-停車位</t>
+  </si>
+  <si>
+    <t>擔保品-房地-其他</t>
+  </si>
+  <si>
+    <t>擔保品-土地-住宅區</t>
+  </si>
+  <si>
+    <t>擔保品-土地-商業區</t>
+  </si>
+  <si>
+    <t>擔保品-土地-工業區</t>
+  </si>
+  <si>
+    <t>擔保品-土地-其他分區</t>
+  </si>
+  <si>
+    <t>擔保品-土地-甲種建地</t>
+  </si>
+  <si>
+    <t>擔保品-土地-乙種建地</t>
+  </si>
+  <si>
+    <t>擔保品-土地-丙種建地</t>
+  </si>
+  <si>
+    <t>擔保品-土地-丁種建地</t>
+  </si>
+  <si>
+    <t>擔保品-土地-其他用地</t>
+  </si>
+  <si>
+    <t>擔保品-車輛</t>
+  </si>
+  <si>
+    <t>擔保品-機器設備</t>
+  </si>
+  <si>
+    <t>擔保品-股票</t>
+  </si>
+  <si>
+    <t>擔保品-其他有價證券</t>
+  </si>
+  <si>
+    <t>擔保品-銀行保證</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:不分 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:年度編號</t>
+  </si>
+  <si>
+    <t>gSeqCom.getSeqNo(0, 0,  "L2",  "0101" ,  9999999,  TitaVo)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>年度編號時月日為0，月份編號時日為0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>放審會流水號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>清償證明公文編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2631</t>
+  </si>
+  <si>
+    <t>gSeqCom.getSeqNo(1, 0,  "L2",  "2631" ,  9999999,  TitaVo)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉換是否要轉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gGSeqCom.getSeqNo(0, 1, "L2", "0003", 999999, titaVo)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>gSeqCom.getSeqNo(this.getTxBuffer().getMgBizDate().getTbsDy(), 1, "L6", "RvNo", 999999, titaVo),</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:年度編號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:不分
+1:年度編號
+2:月份編號
+3:日編號            </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>業務自行編制   
-例: 
+例：
 GseqType="L2"
 0001:戶號
 0002:案件申請編號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件申請編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>0102</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>0199</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <t>0203</t>
-  </si>
-  <si>
-    <t>0209</t>
-  </si>
-  <si>
-    <t>0210</t>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0213</t>
-  </si>
-  <si>
-    <t>0219</t>
-  </si>
-  <si>
-    <t>0901</t>
-  </si>
-  <si>
-    <t>0902</t>
-  </si>
-  <si>
-    <t>0301</t>
-  </si>
-  <si>
-    <t>0401</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>擔保品-房地-住宅</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>擔保品-房地-辦公</t>
-  </si>
-  <si>
-    <t>擔保品-房地-商場</t>
-  </si>
-  <si>
-    <t>擔保品-房地-廠房</t>
-  </si>
-  <si>
-    <t>擔保品-房地-停車位</t>
-  </si>
-  <si>
-    <t>擔保品-房地-其他</t>
-  </si>
-  <si>
-    <t>擔保品-土地-住宅區</t>
-  </si>
-  <si>
-    <t>擔保品-土地-商業區</t>
-  </si>
-  <si>
-    <t>擔保品-土地-工業區</t>
-  </si>
-  <si>
-    <t>擔保品-土地-其他分區</t>
-  </si>
-  <si>
-    <t>擔保品-土地-甲種建地</t>
-  </si>
-  <si>
-    <t>擔保品-土地-乙種建地</t>
-  </si>
-  <si>
-    <t>擔保品-土地-丙種建地</t>
-  </si>
-  <si>
-    <t>擔保品-土地-丁種建地</t>
-  </si>
-  <si>
-    <t>擔保品-土地-其他用地</t>
-  </si>
-  <si>
-    <t>擔保品-車輛</t>
-  </si>
-  <si>
-    <t>擔保品-機器設備</t>
-  </si>
-  <si>
-    <t>擔保品-股票</t>
-  </si>
-  <si>
-    <t>擔保品-其他有價證券</t>
-  </si>
-  <si>
-    <t>擔保品-銀行保證</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:不分 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0:不分 1:年度編號  2:月份編號  3:日編號            </t>
+    <t xml:space="preserve">例：有效值=999 , 流水號999時 , 下一個為001 </t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:年度編號</t>
-  </si>
-  <si>
-    <t>gSeqCom.getSeqNo(0, 0,  "L2",  "0101" ,  9999999,  TitaVo)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>年度編號時月日為0，月份編號時日為0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>放審會流水號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>清償證明公文編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2631</t>
-  </si>
-  <si>
-    <t>gSeqCom.getSeqNo(1, 0,  "L2",  "2631" ,  9999999,  TitaVo)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉換是否要轉</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯貸編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gGSeqCom.getSeqNo(0, 1, "L2", "0003", 999999, titaVo)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t>gSeqCom.getSeqNo(this.getTxBuffer().getMgBizDate().getTbsDy(), 1, "L6", "RvNo", 999999, titaVo),</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:年度編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -823,7 +836,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_CopyBook" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,6 +927,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -949,6 +979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1124,14 +1171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="3" bestFit="1" customWidth="1"/>
@@ -1142,7 +1189,7 @@
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1204,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="9" t="s">
@@ -1170,13 +1217,13 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>21</v>
@@ -1185,7 +1232,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1243,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1254,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1265,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1276,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1252,28 +1299,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="25">
         <v>8</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
@@ -1282,7 +1329,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>41</v>
@@ -1291,11 +1338,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1314,10 +1361,10 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="81">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1336,10 +1383,10 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1358,10 +1405,10 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1381,7 +1428,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1399,7 +1446,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1419,7 +1466,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1437,7 +1484,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1474,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1482,7 +1529,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="83" style="2" customWidth="1"/>
@@ -1490,7 +1537,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1509,14 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="32" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="36" customWidth="1"/>
@@ -1529,660 +1576,660 @@
     <col min="9" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1">
+    <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="36">
         <v>9999999</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="36">
         <v>99999</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="36">
         <v>9999999</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="36">
         <v>9999999</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>7</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="36">
         <v>9999999</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>8</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="36">
         <v>9999999</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>9</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="36">
         <v>9999999</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>10</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="36">
         <v>9999999</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>11</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="36">
         <v>9999999</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>12</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="36">
         <v>9999999</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>13</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="36">
         <v>9999999</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>14</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="36">
         <v>9999999</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>15</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="36">
         <v>9999999</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>16</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="36">
         <v>9999999</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>17</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="36">
         <v>9999999</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="36">
         <v>9999999</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>19</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="36">
         <v>9999999</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>20</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="36">
         <v>9999999</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>21</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="36">
         <v>9999999</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>22</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="36">
         <v>9999999</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>23</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="36">
         <v>9999999</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>24</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="36">
         <v>9999999</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>25</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="36">
         <v>999999</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>26</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="36">
         <v>999999</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>27</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="36">
         <v>9999999</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="H26" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
         <v>28</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" s="36">
         <v>999999</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
         <v>29</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="36">
         <v>999999</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M29" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGseq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B1555-1D79-43E9-BAC5-0E29F680C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E50736-D61D-41A2-8FEC-81BE2A34270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">業務自行編制   例:L2-業務作業    </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>業務類別
 GseqType</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -493,6 +489,10 @@
   </si>
   <si>
     <t xml:space="preserve">例：有效值=999 , 流水號999時 , 下一個為001 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">業務自行編制   例：L2-業務作業    </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1310,14 +1310,14 @@
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="25">
         <v>8</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>41</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="26" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1578,25 +1578,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="32" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>54</v>
-      </c>
       <c r="H1" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1604,22 +1604,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="36">
         <v>9999999</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1627,22 +1627,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="36">
         <v>99999</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1650,25 +1650,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="36">
         <v>9999999</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1676,22 +1676,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="36">
         <v>9999999</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1699,22 +1699,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="36">
         <v>9999999</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,22 +1722,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="36">
         <v>9999999</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1745,22 +1745,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="36">
         <v>9999999</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1768,22 +1768,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="36">
         <v>9999999</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1791,22 +1791,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="36">
         <v>9999999</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1814,22 +1814,22 @@
         <v>12</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="36">
         <v>9999999</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1837,22 +1837,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="36">
         <v>9999999</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1860,22 +1860,22 @@
         <v>14</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="36">
         <v>9999999</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1883,22 +1883,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="36">
         <v>9999999</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1906,22 +1906,22 @@
         <v>16</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="36">
         <v>9999999</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1929,22 +1929,22 @@
         <v>17</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="36">
         <v>9999999</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1952,22 +1952,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="36">
         <v>9999999</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1975,22 +1975,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="36">
         <v>9999999</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1998,22 +1998,22 @@
         <v>20</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="36">
         <v>9999999</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2021,22 +2021,22 @@
         <v>21</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="36">
         <v>9999999</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2044,22 +2044,22 @@
         <v>22</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="36">
         <v>9999999</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2067,22 +2067,22 @@
         <v>23</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="36">
         <v>9999999</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2090,22 +2090,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="36">
         <v>9999999</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2113,22 +2113,22 @@
         <v>25</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="36">
         <v>999999</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2136,22 +2136,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="36">
         <v>999999</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2159,25 +2159,25 @@
         <v>27</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>112</v>
       </c>
       <c r="E26" s="36">
         <v>9999999</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2185,22 +2185,22 @@
         <v>28</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="36">
         <v>999999</v>
       </c>
       <c r="F27" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2208,28 +2208,28 @@
         <v>29</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="36">
         <v>999999</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M29" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
